--- a/table/Enum.Packet.xlsx
+++ b/table/Enum.Packet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55602CF6-8F49-4E2B-97F3-59BDD4A1904D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FFC28-AA92-4B7F-A55B-F1702BBCBC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="10770" windowHeight="11280" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="13395" yWindow="4320" windowWidth="10770" windowHeight="11280" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionKind" sheetId="3" r:id="rId1"/>
@@ -25,45 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일시정지 세팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일시정지 해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위치 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타겟 때리려 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetDestination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아무것도아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치로 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 스폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,31 +471,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/table/Enum.Packet.xlsx
+++ b/table/Enum.Packet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599FFC28-AA92-4B7F-A55B-F1702BBCBC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D71AC-5D5C-4B41-B8DB-E644AC3A42CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13395" yWindow="4320" windowWidth="10770" windowHeight="11280" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무것도아님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +64,14 @@
   </si>
   <si>
     <t>AttackPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 계속 보냄, 나중에 제거할지 결정 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,34 +476,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/table/Enum.Packet.xlsx
+++ b/table/Enum.Packet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Crash\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029D71AC-5D5C-4B41-B8DB-E644AC3A42CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78BD5D1-9A2F-4714-B5EA-26B10350EF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13395" yWindow="4320" windowWidth="10770" windowHeight="11280" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,14 @@
   </si>
   <si>
     <t>이거 계속 보냄, 나중에 제거할지 결정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,10 +464,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -484,7 +488,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -492,7 +496,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -504,6 +508,14 @@
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
